--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -65,16 +65,89 @@
     <t>Sprawdza czy wyskakuje "Podałeś błędne dane logowania". Sprawdzenie czy imputy puste.</t>
   </si>
   <si>
-    <t>Poprawne logowanie na ADMINA.</t>
-  </si>
-  <si>
     <t>Sprawdza czy widoczna jest zakładka "Dodaj książkę"</t>
   </si>
   <si>
-    <t>Poprawne logowanie na USER.</t>
-  </si>
-  <si>
     <t>Sprawdza czy NIE widoczna jest zakładka "Dodaj książkę"</t>
+  </si>
+  <si>
+    <t>Rejestracja z pustymi polami</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyskakuje:
+"6 errors
+    Username can't be blank
+    Username is too short (minimum is 3 characters)
+    Email can't be blank
+    Email is invalid
+    Password can't be blank
+    Password is invalid"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja jedynie z Nazwa Użytkownika </t>
+  </si>
+  <si>
+    <t>Rejestracja jedynie z Nazwa Użytkownika (Lenght&lt; 3)</t>
+  </si>
+  <si>
+    <t>Rejestracja jedynie z mailem</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje: 
+4 errors
+    Username can't be blank
+    Username is too short (minimum is 3 characters)
+    Password can't be blank
+    Password is invalid"</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyskakuje:
+"4 errors
+    Email can't be blank
+    Email is invalid
+    Password can't be blank
+    Password is invalid"</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyskakuje:
+"5 errors
+    Username is too short (minimum is 3 characters)
+    Email can't be blank
+    Email is invalid
+    Password can't be blank
+    Password is invalid"</t>
+  </si>
+  <si>
+    <t>Rejestracja istniejący użytkownik+mail+hasło</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje:
+"Username has already been taken"</t>
+  </si>
+  <si>
+    <t>Rejestracja użytkownik+ istniejący mail+hasło</t>
+  </si>
+  <si>
+    <t>Rejestracja poprawna użytkownik+ mail+hasło</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje: 
+"Email  has already been taken"</t>
+  </si>
+  <si>
+    <t>Sprawdzanie czy rejestracja przebiegła poprawnie</t>
+  </si>
+  <si>
+    <t>Poprawne logowanie na ADMINA za pomocą Loginu.</t>
+  </si>
+  <si>
+    <t>Poprawne logowanie na USER  za pomocą Loginu.</t>
+  </si>
+  <si>
+    <t>Poprawne logowanie na ADMINA za pomocą Maila.</t>
+  </si>
+  <si>
+    <t>Poprawne logowanie na USER  za pomocą Maila.</t>
   </si>
 </sst>
 </file>
@@ -110,13 +183,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,14 +242,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Opis kroku"/>
     <tableColumn id="3" name="Weryfikacja"/>
     <tableColumn id="4" name="Czy działa"/>
     <tableColumn id="5" name="Odpowiedzialny"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E8" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:E8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Opis kroku" dataDxfId="4"/>
+    <tableColumn id="3" name="Weryfikacja" dataDxfId="3"/>
+    <tableColumn id="4" name="Czy działa" dataDxfId="2"/>
+    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,15 +587,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -553,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -567,12 +679,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -586,12 +726,144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19401"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCAE41C0-0EB2-45E8-A7EC-B1BE82E6BC4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
     <sheet name="Logowanie" sheetId="1" r:id="rId2"/>
     <sheet name="Rejestracja" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -32,43 +33,55 @@
     <t>Weryfikacja</t>
   </si>
   <si>
+    <t>Czy działa</t>
+  </si>
+  <si>
     <t>Odpowiedzialny</t>
   </si>
   <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wszystkie kontrolki we wszytkich zakładkach są wyswietlane.</t>
+  </si>
+  <si>
+    <t>Damian Lechański</t>
+  </si>
+  <si>
     <t>Wpisanie  "nie maila" w pole maila.</t>
   </si>
   <si>
     <t xml:space="preserve">Sprawdzenie czy wyskakuje "Należy wpisać poprawny adres e-mail". </t>
   </si>
   <si>
-    <t>Czy działa</t>
-  </si>
-  <si>
-    <t>Damian Lechański</t>
-  </si>
-  <si>
     <t>Wpisanie samego maila.</t>
   </si>
   <si>
     <t>Sprawdzenie czy wyskakuje "Podałeś błędne dane logowania".  Sprawdzenie czy imputy puste.</t>
   </si>
   <si>
-    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach.</t>
-  </si>
-  <si>
-    <t>Sprawdzenie czy wszystkie kontrolki we wszytkich zakładkach są wyswietlane.</t>
-  </si>
-  <si>
     <t>Wpisanie złego maila i złego hasła.</t>
   </si>
   <si>
     <t>Sprawdza czy wyskakuje "Podałeś błędne dane logowania". Sprawdzenie czy imputy puste.</t>
   </si>
   <si>
+    <t>Poprawne logowanie na ADMINA za pomocą Loginu.</t>
+  </si>
+  <si>
     <t>Sprawdza czy widoczna jest zakładka "Dodaj książkę"</t>
   </si>
   <si>
+    <t>Poprawne logowanie na ADMINA za pomocą Maila.</t>
+  </si>
+  <si>
+    <t>Poprawne logowanie na USER  za pomocą Loginu.</t>
+  </si>
+  <si>
     <t>Sprawdza czy NIE widoczna jest zakładka "Dodaj książkę"</t>
+  </si>
+  <si>
+    <t>Poprawne logowanie na USER  za pomocą Maila.</t>
   </si>
   <si>
     <t>Rejestracja z pustymi polami</t>
@@ -84,29 +97,7 @@
     Password is invalid"</t>
   </si>
   <si>
-    <t xml:space="preserve">Rejestracja jedynie z Nazwa Użytkownika </t>
-  </si>
-  <si>
     <t>Rejestracja jedynie z Nazwa Użytkownika (Lenght&lt; 3)</t>
-  </si>
-  <si>
-    <t>Rejestracja jedynie z mailem</t>
-  </si>
-  <si>
-    <t>Sprawdza czy wyskakuje: 
-4 errors
-    Username can't be blank
-    Username is too short (minimum is 3 characters)
-    Password can't be blank
-    Password is invalid"</t>
-  </si>
-  <si>
-    <t>Sprawdzenie czy wyskakuje:
-"4 errors
-    Email can't be blank
-    Email is invalid
-    Password can't be blank
-    Password is invalid"</t>
   </si>
   <si>
     <t>Sprawdzenie czy wyskakuje:
@@ -118,6 +109,28 @@
     Password is invalid"</t>
   </si>
   <si>
+    <t xml:space="preserve">Rejestracja jedynie z Nazwa Użytkownika </t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyskakuje:
+"4 errors
+    Email can't be blank
+    Email is invalid
+    Password can't be blank
+    Password is invalid"</t>
+  </si>
+  <si>
+    <t>Rejestracja jedynie z mailem</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje: 
+4 errors
+    Username can't be blank
+    Username is too short (minimum is 3 characters)
+    Password can't be blank
+    Password is invalid"</t>
+  </si>
+  <si>
     <t>Rejestracja istniejący użytkownik+mail+hasło</t>
   </si>
   <si>
@@ -128,33 +141,60 @@
     <t>Rejestracja użytkownik+ istniejący mail+hasło</t>
   </si>
   <si>
-    <t>Rejestracja poprawna użytkownik+ mail+hasło</t>
-  </si>
-  <si>
     <t>Sprawdza czy wyskakuje: 
 "Email  has already been taken"</t>
   </si>
   <si>
+    <t>Rejestracja poprawna użytkownik+ mail+hasło</t>
+  </si>
+  <si>
     <t>Sprawdzanie czy rejestracja przebiegła poprawnie</t>
   </si>
   <si>
-    <t>Poprawne logowanie na ADMINA za pomocą Loginu.</t>
-  </si>
-  <si>
-    <t>Poprawne logowanie na USER  za pomocą Loginu.</t>
-  </si>
-  <si>
-    <t>Poprawne logowanie na ADMINA za pomocą Maila.</t>
-  </si>
-  <si>
-    <t>Poprawne logowanie na USER  za pomocą Maila.</t>
+    <t>Dodanie samej oceny, bez opisu</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy książce zostana dodała ocena, oraz czy jej średnia ocen jest właściwa</t>
+  </si>
+  <si>
+    <t>Michał Malicki</t>
+  </si>
+  <si>
+    <t>Dodanie oceny wraz z krótkim opisem tekstowym</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy książce zostana dodała ocena, oraz czy jej średnia ocen jest właściwa i czy dodany został opis.</t>
+  </si>
+  <si>
+    <t>Dodanie oceny wraz z 60000 bajtów Lorem Ipsum w opisie</t>
+  </si>
+  <si>
+    <t>Sprawdzenie opinii użytkownika - brak opinii</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy nie pokazuje żadnych opinii użytkownika</t>
+  </si>
+  <si>
+    <t>Sprawdzenie opinii użytkownika - są opinie</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy wszystkie dodane wcześniej przez użytkownika opinie są widoczne w jego opiniach użytkownika</t>
+  </si>
+  <si>
+    <t>Sprawdzenie opinii innego użytkownika jako admin - brak opinii</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy dany użytkownik nie ma żadnych opinii</t>
+  </si>
+  <si>
+    <t>Sprawdzenie opinii innego użytkownika jako admin - istnieją opinie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,42 +268,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Opis kroku"/>
-    <tableColumn id="3" name="Weryfikacja"/>
-    <tableColumn id="4" name="Czy działa"/>
-    <tableColumn id="5" name="Odpowiedzialny"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opis kroku"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Weryfikacja"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Czy działa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Opis kroku"/>
-    <tableColumn id="3" name="Weryfikacja"/>
-    <tableColumn id="4" name="Czy działa"/>
-    <tableColumn id="5" name="Odpowiedzialny"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opis kroku"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Weryfikacja"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Czy działa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E8" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela32" displayName="Tabela32" ref="A1:E15" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Opis kroku" dataDxfId="4"/>
-    <tableColumn id="3" name="Weryfikacja" dataDxfId="3"/>
-    <tableColumn id="4" name="Czy działa" dataDxfId="2"/>
-    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opis kroku" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Weryfikacja" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Czy działa" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Odpowiedzialny" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
@@ -546,7 +586,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,21 +597,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -586,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
@@ -601,7 +641,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,41 +652,41 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -660,57 +700,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -725,12 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="E9" sqref="E9:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
@@ -738,7 +780,7 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,33 +791,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -785,79 +827,184 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="90">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19401"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCAE41C0-0EB2-45E8-A7EC-B1BE82E6BC4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
     <sheet name="Logowanie" sheetId="1" r:id="rId2"/>
     <sheet name="Rejestracja" sheetId="3" r:id="rId3"/>
+    <sheet name="OcenaOpinia" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -193,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,16 +202,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,16 +239,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -268,42 +330,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opis kroku"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Weryfikacja"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Czy działa"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Odpowiedzialny"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Opis kroku"/>
+    <tableColumn id="3" name="Weryfikacja"/>
+    <tableColumn id="4" name="Czy działa"/>
+    <tableColumn id="5" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opis kroku"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Weryfikacja"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Czy działa"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Odpowiedzialny"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Opis kroku"/>
+    <tableColumn id="3" name="Weryfikacja"/>
+    <tableColumn id="4" name="Czy działa"/>
+    <tableColumn id="5" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela32" displayName="Tabela32" ref="A1:E15" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E8" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opis kroku" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Weryfikacja" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Czy działa" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Odpowiedzialny" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
+    <tableColumn id="3" name="Weryfikacja" dataDxfId="2"/>
+    <tableColumn id="4" name="Czy działa" dataDxfId="1"/>
+    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
@@ -586,7 +648,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,22 +688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -700,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -714,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -728,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -742,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -765,22 +827,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="E9" sqref="E9:E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -812,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -827,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -842,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -857,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -872,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -887,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -900,111 +962,6 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1013,4 +970,146 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1019,7 +1019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Sprawdzenie opinii innego użytkownika jako admin - istnieją opinie</t>
+  </si>
+  <si>
+    <t>Rejestracja istniejący użytkownik+ istniejący mail+ hasło</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje:
+2 errors
+    Username has already been taken
+    Email has already been taken</t>
   </si>
 </sst>
 </file>
@@ -358,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E8" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="4"/>
     <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
@@ -828,15 +837,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -876,7 +885,7 @@
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -891,7 +900,7 @@
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -919,15 +928,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -936,31 +945,46 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Odpowiedzialny</t>
-  </si>
-  <si>
-    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach.</t>
   </si>
   <si>
     <t>Sprawdzenie czy wszystkie kontrolki we wszytkich zakładkach są wyswietlane.</t>
@@ -197,6 +194,15 @@
 2 errors
     Username has already been taken
     Email has already been taken</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach przed zalogowaniem.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach jako User.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach jako Admin.</t>
   </si>
 </sst>
 </file>
@@ -339,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Opis kroku"/>
@@ -643,15 +649,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -679,13 +685,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -734,13 +768,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,13 +782,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,13 +796,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,13 +810,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,13 +824,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,13 +838,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,13 +852,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -839,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,14 +907,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -888,14 +922,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -903,89 +937,89 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1033,14 +1067,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1048,14 +1082,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1063,14 +1097,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,14 +1112,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1093,14 +1127,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,14 +1142,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1123,14 +1157,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19406"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA13CC18-D7DD-4C45-9DDE-A15C5523D9F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Rejestracja" sheetId="3" r:id="rId3"/>
     <sheet name="OcenaOpinia" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -39,10 +40,19 @@
     <t>Odpowiedzialny</t>
   </si>
   <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach przed zalogowaniem.</t>
+  </si>
+  <si>
     <t>Sprawdzenie czy wszystkie kontrolki we wszytkich zakładkach są wyswietlane.</t>
   </si>
   <si>
     <t>Damian Lechański</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach jako User.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach jako Admin.</t>
   </si>
   <si>
     <t>Wpisanie  "nie maila" w pole maila.</t>
@@ -128,65 +138,6 @@
     Password is invalid"</t>
   </si>
   <si>
-    <t>Rejestracja istniejący użytkownik+mail+hasło</t>
-  </si>
-  <si>
-    <t>Sprawdza czy wyskakuje:
-"Username has already been taken"</t>
-  </si>
-  <si>
-    <t>Rejestracja użytkownik+ istniejący mail+hasło</t>
-  </si>
-  <si>
-    <t>Sprawdza czy wyskakuje: 
-"Email  has already been taken"</t>
-  </si>
-  <si>
-    <t>Rejestracja poprawna użytkownik+ mail+hasło</t>
-  </si>
-  <si>
-    <t>Sprawdzanie czy rejestracja przebiegła poprawnie</t>
-  </si>
-  <si>
-    <t>Dodanie samej oceny, bez opisu</t>
-  </si>
-  <si>
-    <t>Sprawdzenie, czy książce zostana dodała ocena, oraz czy jej średnia ocen jest właściwa</t>
-  </si>
-  <si>
-    <t>Michał Malicki</t>
-  </si>
-  <si>
-    <t>Dodanie oceny wraz z krótkim opisem tekstowym</t>
-  </si>
-  <si>
-    <t>Sprawdzenie, czy książce zostana dodała ocena, oraz czy jej średnia ocen jest właściwa i czy dodany został opis.</t>
-  </si>
-  <si>
-    <t>Dodanie oceny wraz z 60000 bajtów Lorem Ipsum w opisie</t>
-  </si>
-  <si>
-    <t>Sprawdzenie opinii użytkownika - brak opinii</t>
-  </si>
-  <si>
-    <t>Sprawdzenie, czy nie pokazuje żadnych opinii użytkownika</t>
-  </si>
-  <si>
-    <t>Sprawdzenie opinii użytkownika - są opinie</t>
-  </si>
-  <si>
-    <t>Sprawdzenie, czy wszystkie dodane wcześniej przez użytkownika opinie są widoczne w jego opiniach użytkownika</t>
-  </si>
-  <si>
-    <t>Sprawdzenie opinii innego użytkownika jako admin - brak opinii</t>
-  </si>
-  <si>
-    <t>Sprawdzenie, czy dany użytkownik nie ma żadnych opinii</t>
-  </si>
-  <si>
-    <t>Sprawdzenie opinii innego użytkownika jako admin - istnieją opinie</t>
-  </si>
-  <si>
     <t>Rejestracja istniejący użytkownik+ istniejący mail+ hasło</t>
   </si>
   <si>
@@ -196,20 +147,94 @@
     Email has already been taken</t>
   </si>
   <si>
-    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach przed zalogowaniem.</t>
-  </si>
-  <si>
-    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach jako User.</t>
-  </si>
-  <si>
-    <t>Sprawdzenie wszystkich kontolek (input, label, button) na wszystkich zakładkach jako Admin.</t>
+    <t>Rejestracja istniejący użytkownik+mail+hasło</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje:
+"Username has already been taken"</t>
+  </si>
+  <si>
+    <t>Rejestracja użytkownik+ istniejący mail+hasło</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje: 
+"Email  has already been taken"</t>
+  </si>
+  <si>
+    <t>Rejestracja poprawna użytkownik+ mail+hasło</t>
+  </si>
+  <si>
+    <t>Sprawdzanie czy rejestracja przebiegła poprawnie</t>
+  </si>
+  <si>
+    <t>Dodanie opinii bez opisu - strona książki</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy książce została dodana ocena na jej stronie.</t>
+  </si>
+  <si>
+    <t>Michał Malicki</t>
+  </si>
+  <si>
+    <t>Dodanie opinii z opisem - strona książki</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy książce została dodana ocena z opinią na jej stronie.</t>
+  </si>
+  <si>
+    <t>Dodanie opinii z opisem - profil użytkownika</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy książce została dodana ocena z opinią na profilu użytkownika.</t>
+  </si>
+  <si>
+    <t>Dodanie opinii bez opisu - profil użytkownika</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy książce została dodana ocena na profilu użytkownika.</t>
+  </si>
+  <si>
+    <t>Oglądanie opinii dodanych przez innego użytkownika jako administrator - są opinie</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy administrator widzi opinie innych użytkowników</t>
+  </si>
+  <si>
+    <t>Oglądanie opinii dodanych przez innego użytkownika jako administrator - brak opinii</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy administrator widzi innego użytkownika, oraz komunikat o braku wystawionych przez niego opinii i ocen</t>
+  </si>
+  <si>
+    <t>Próba dodania opinii o długości powyżej 1000 znaków</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy zostanie wyświetlony komunikat o przekroczeniu długości opisu opinii</t>
+  </si>
+  <si>
+    <t>Usunięcie swojej opinii </t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy możliwe jest usunięcie własnej opinii</t>
+  </si>
+  <si>
+    <t>Usunięcie cudzej opinii jako admin</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy administrator może usuwać opinie innych użytkowników</t>
+  </si>
+  <si>
+    <t>Sprawdzenie średniej ocen książki</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy wyświetlana jest właściwa średnia ocen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +270,18 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -252,15 +289,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -274,11 +302,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -298,14 +335,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -345,42 +403,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Opis kroku"/>
-    <tableColumn id="3" name="Weryfikacja"/>
-    <tableColumn id="4" name="Czy działa"/>
-    <tableColumn id="5" name="Odpowiedzialny"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opis kroku"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Weryfikacja"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Czy działa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Opis kroku"/>
-    <tableColumn id="3" name="Weryfikacja"/>
-    <tableColumn id="4" name="Czy działa"/>
-    <tableColumn id="5" name="Odpowiedzialny"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opis kroku"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Weryfikacja"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Czy działa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
-    <tableColumn id="3" name="Weryfikacja" dataDxfId="2"/>
-    <tableColumn id="4" name="Czy działa" dataDxfId="1"/>
-    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opis kroku" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Weryfikacja" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Czy działa" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Odpowiedzialny" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -648,14 +706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
@@ -663,7 +721,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,46 +738,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -731,14 +789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
@@ -746,7 +804,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,102 +821,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -870,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
@@ -885,7 +943,7 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -902,124 +960,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1031,12 +1089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
@@ -1045,127 +1105,193 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19406"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA13CC18-D7DD-4C45-9DDE-A15C5523D9F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Rejestracja" sheetId="3" r:id="rId3"/>
     <sheet name="OcenaOpinia" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,42 +402,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opis kroku"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Weryfikacja"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Czy działa"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Odpowiedzialny"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Opis kroku"/>
+    <tableColumn id="3" name="Weryfikacja"/>
+    <tableColumn id="4" name="Czy działa"/>
+    <tableColumn id="5" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opis kroku"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Weryfikacja"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Czy działa"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Odpowiedzialny"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Opis kroku"/>
+    <tableColumn id="3" name="Weryfikacja"/>
+    <tableColumn id="4" name="Czy działa"/>
+    <tableColumn id="5" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opis kroku" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Weryfikacja" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Czy działa" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Odpowiedzialny" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
+    <tableColumn id="3" name="Weryfikacja" dataDxfId="2"/>
+    <tableColumn id="4" name="Czy działa" dataDxfId="1"/>
+    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,14 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
@@ -721,7 +720,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -752,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -766,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -789,14 +788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
@@ -804,7 +803,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -835,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -863,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -877,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -891,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -905,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -928,14 +927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
@@ -943,7 +942,7 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -975,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -990,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1089,14 +1088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
@@ -1105,7 +1104,7 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1272,21 +1271,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -227,6 +227,13 @@
   </si>
   <si>
     <t>Sprawdzenie, czy wyświetlana jest właściwa średnia ocen</t>
+  </si>
+  <si>
+    <t>Próba usunięcia konta admina</t>
+  </si>
+  <si>
+    <t>Sprawdza czy wyskakuje: 
+"Nie możesz usunąć administratora"</t>
   </si>
 </sst>
 </file>
@@ -430,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E10" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="4"/>
     <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
@@ -708,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -928,10 +935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1086,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1091,9 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19423"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{490FD299-9BAD-44A3-A685-07E54C39A538}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE32F97-DE7B-4C72-8687-1BC275BA761E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>Dodanie opinii bez opisu - strona książki</t>
   </si>
   <si>
-    <t>Sprawdzenie, czy książce została dodana ocena na jej stronie.</t>
+    <t>Sprawdzenie, czy książce została dodana ocena na jej stronie</t>
   </si>
   <si>
     <t>TAK</t>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="P22" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="V24" sqref="V24:V48"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD21D93-5A62-4DDA-9482-559D52B7A03B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A9A5F2CB-0B93-582D-A525-BFC12A5C8CC1}">
+    <sheetView workbookViewId="0" xr3:uid="{A9A5F2CB-0B93-582D-A525-BFC12A5C8CC1}">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19423"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{490FD299-9BAD-44A3-A685-07E54C39A538}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
     <sheet name="Logowanie" sheetId="1" r:id="rId2"/>
     <sheet name="Rejestracja" sheetId="3" r:id="rId3"/>
     <sheet name="OcenaOpinia" sheetId="4" r:id="rId4"/>
+    <sheet name="Książki" sheetId="5" r:id="rId5"/>
+    <sheet name="Lista książek" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -172,6 +175,9 @@
     <t>Sprawdzenie, czy książce została dodana ocena na jej stronie.</t>
   </si>
   <si>
+    <t>TAK</t>
+  </si>
+  <si>
     <t>Michał Malicki</t>
   </si>
   <si>
@@ -223,24 +229,80 @@
     <t>Sprawdzenie, czy administrator może usuwać opinie innych użytkowników</t>
   </si>
   <si>
-    <t>Sprawdzenie średniej ocen książki</t>
+    <t>średnia ocen</t>
   </si>
   <si>
     <t>Sprawdzenie, czy wyświetlana jest właściwa średnia ocen</t>
   </si>
   <si>
-    <t>Próba usunięcia konta admina</t>
-  </si>
-  <si>
-    <t>Sprawdza czy wyskakuje: 
-"Nie możesz usunąć administratora"</t>
+    <t>komunikat dodania opinii</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy po dodaniu opinii pojawia się komunikat o dodaniu jej</t>
+  </si>
+  <si>
+    <t>Dwie opinie z jednego konta</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy nie uda się dodać dwóch opinii z jednego konta od tej samej książki</t>
+  </si>
+  <si>
+    <t>dodanie nowej książki nowego autora</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy udało się dodać książkę</t>
+  </si>
+  <si>
+    <t>Dodanie nowej książki autora, ktory już jest w bazie</t>
+  </si>
+  <si>
+    <t>Dodanie książki nowego autora, która ma tytuł identyczny jak książka kogoś innego</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy udalo się dodać książkę</t>
+  </si>
+  <si>
+    <t>Dodanie książki, która już jest w bazie</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy książka nie została dodana</t>
+  </si>
+  <si>
+    <t>Dodanie książki bez tytułu</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy wyświetlił się odpowiedni komunikat, i czy książka nie została dodana</t>
+  </si>
+  <si>
+    <t>Dodanie książki bez autora</t>
+  </si>
+  <si>
+    <t>Dodanie książki bez gatunku</t>
+  </si>
+  <si>
+    <t>Usunięcie książki z listy książek</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy książka została usunięta z listy</t>
+  </si>
+  <si>
+    <t>Usunięcie książki po wyszukaniu jej za pomoc ą wyszukiwarki</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy książka została usunięta i czy nie można jej wyszukać</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich pozycji na liście książek</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy wszystkie książki są wyświetlane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -371,6 +433,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,42 +490,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Opis kroku"/>
-    <tableColumn id="3" name="Weryfikacja"/>
-    <tableColumn id="4" name="Czy działa"/>
-    <tableColumn id="5" name="Odpowiedzialny"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opis kroku"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Weryfikacja"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Czy działa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Opis kroku"/>
-    <tableColumn id="3" name="Weryfikacja"/>
-    <tableColumn id="4" name="Czy działa"/>
-    <tableColumn id="5" name="Odpowiedzialny"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opis kroku"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Weryfikacja"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Czy działa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E10" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
-    <tableColumn id="3" name="Weryfikacja" dataDxfId="2"/>
-    <tableColumn id="4" name="Czy działa" dataDxfId="1"/>
-    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opis kroku" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Weryfikacja" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Czy działa" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Odpowiedzialny" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,14 +793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
@@ -727,7 +808,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -758,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -772,7 +853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -795,14 +876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
@@ -810,7 +891,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -841,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -855,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -869,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -883,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -897,7 +978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -911,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -934,14 +1015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
@@ -949,7 +1030,7 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -981,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -996,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1011,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="90">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1026,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1041,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1056,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1071,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1083,21 +1164,6 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1110,12 +1176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="P22" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="V24" sqref="V24:V48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
@@ -1124,7 +1192,7 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1151,161 +1219,210 @@
       <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" ht="30">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1315,4 +1432,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F2703A-392B-4543-A605-638F4933913C}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{FB71B9B2-580B-5CC1-B54C-A024C4347091}">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD21D93-5A62-4DDA-9482-559D52B7A03B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A9A5F2CB-0B93-582D-A525-BFC12A5C8CC1}">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19423"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE32F97-DE7B-4C72-8687-1BC275BA761E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Menu i zakładki" sheetId="2" r:id="rId1"/>
-    <sheet name="Logowanie" sheetId="1" r:id="rId2"/>
-    <sheet name="Rejestracja" sheetId="3" r:id="rId3"/>
-    <sheet name="OcenaOpinia" sheetId="4" r:id="rId4"/>
-    <sheet name="Książki" sheetId="5" r:id="rId5"/>
-    <sheet name="Lista książek" sheetId="6" r:id="rId6"/>
+    <sheet name="Książki" sheetId="5" r:id="rId1"/>
+    <sheet name="Lista książek" sheetId="6" r:id="rId2"/>
+    <sheet name="Lista opinii" sheetId="7" r:id="rId3"/>
+    <sheet name="Logowanie" sheetId="1" r:id="rId4"/>
+    <sheet name="Menu i zakładki" sheetId="2" r:id="rId5"/>
+    <sheet name="OcenaOpinia" sheetId="4" r:id="rId6"/>
+    <sheet name="Rejestracja" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -297,12 +297,18 @@
   <si>
     <t>Sprawdza, czy wszystkie książki są wyświetlane</t>
   </si>
+  <si>
+    <t>Sprawdzenie wszystkich pozycji na liście opinii</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy wszystkie opinie są wyświetlane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,42 +496,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opis kroku"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Weryfikacja"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Czy działa"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Odpowiedzialny"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Opis kroku"/>
+    <tableColumn id="3" name="Weryfikacja"/>
+    <tableColumn id="4" name="Czy działa"/>
+    <tableColumn id="5" name="Odpowiedzialny"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Opis kroku"/>
+    <tableColumn id="3" name="Weryfikacja"/>
+    <tableColumn id="4" name="Czy działa"/>
+    <tableColumn id="5" name="Odpowiedzialny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opis kroku"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Weryfikacja"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Czy działa"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Odpowiedzialny"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela32" displayName="Tabela32" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opis kroku" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Weryfikacja" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Czy działa" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Odpowiedzialny" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Opis kroku" dataDxfId="3"/>
+    <tableColumn id="3" name="Weryfikacja" dataDxfId="2"/>
+    <tableColumn id="4" name="Czy działa" dataDxfId="1"/>
+    <tableColumn id="5" name="Odpowiedzialny" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -793,22 +799,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,45 +1131,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -875,23 +1237,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,101 +1270,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1014,176 +1320,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="120">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
@@ -1192,7 +1337,7 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1226,7 +1371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1243,7 +1388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1260,7 +1405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1277,7 +1422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1294,7 +1439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1311,7 +1456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1328,7 +1473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1345,7 +1490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1362,7 +1507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1388,7 +1533,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" ht="30">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1405,7 +1550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1422,7 +1567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1434,246 +1579,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F2703A-392B-4543-A605-638F4933913C}">
-  <dimension ref="A1:E10"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{FB71B9B2-580B-5CC1-B54C-A024C4347091}">
-      <selection sqref="A1:E2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60">
-      <c r="A4" s="6">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="4">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="6">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="4">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="8">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>41</v>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD21D93-5A62-4DDA-9482-559D52B7A03B}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A9A5F2CB-0B93-582D-A525-BFC12A5C8CC1}">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/test scripts.xlsx
+++ b/test scripts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Książki" sheetId="5" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="Menu i zakładki" sheetId="2" r:id="rId5"/>
     <sheet name="OcenaOpinia" sheetId="4" r:id="rId6"/>
     <sheet name="Rejestracja" sheetId="3" r:id="rId7"/>
+    <sheet name="Wyszukiwanie" sheetId="8" r:id="rId8"/>
+    <sheet name="Lista użytkowników" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -302,6 +304,60 @@
   </si>
   <si>
     <t>Sprawdza, czy wszystkie opinie są wyświetlane</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie z frazą sortując rosnąco po tytule</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyniki są posortowane rosnąco po tytule</t>
+  </si>
+  <si>
+    <t>Działa</t>
+  </si>
+  <si>
+    <t>Dominik Gołdyn</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie z frazą sortując rosnąco po autorze</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyniki są posortowane rosnąco po autorze</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie z frazą sortując rosnąco po gatunku</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyniki są posortowane rosnąco po gatunku</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie z frazą sortując malejąco po tytule</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyniki są posortowane malejąco po tytule</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie z frazą sortując malejąco po autorze</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyniki są posortowane malejąco po autorze</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie z frazą sortując malejąco po gatunku</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy wyniki są posortowane malejąco po gatunku</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie książki której nie ma</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy będzie komunikat Brak ksiazki o podanych parametrach</t>
+  </si>
+  <si>
+    <t>Sprawdza, czy wszyscy użytkownicy są wyświetlani</t>
+  </si>
+  <si>
+    <t>Sprawdzenie wszystkich pozycji na liście użytkowników</t>
   </si>
 </sst>
 </file>
@@ -389,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -458,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -615,7 +677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -802,9 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -992,9 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,11 +1102,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1076,23 +1132,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="D2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1102,9 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1241,9 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1324,9 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1583,9 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1738,4 +1787,216 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>